--- a/medicine/Enfance/Nob_(auteur)/Nob_(auteur).xlsx
+++ b/medicine/Enfance/Nob_(auteur)/Nob_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nob, de son vrai nom Bruno Chevrier, né en 1973 à Tours, est un dessinateur, scénariste et coloriste de bande dessinée français. Il signe parfois sous le pseudonyme Bruno Garcia[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nob, de son vrai nom Bruno Chevrier, né en 1973 à Tours, est un dessinateur, scénariste et coloriste de bande dessinée français. Il signe parfois sous le pseudonyme Bruno Garcia.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nob débute dans la bande dessinée en créant un fanzine au lycée ; il gagne le premier prix du concours BD du festival de Grenoble, puis un prix au concours scolaire du festival d'Angoulême[réf. nécessaire]. Il participe au magazine Tchô!, où il publie plusieurs séries dont il est l'auteur, après avoir été repéré dans un concours de jeunes talents par les Éditions Glénat[réf. nécessaire]. Il est rédacteur en chef et graphiste du magazine en 2003, avant démissionner de ce poste 2008.
 Nob apparaît dans le magazine Spirou à partir de 2004 et régulièrement depuis 2010.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Scénarios et dessins
-Bogzzz, Éditions Glénat :
+          <t>Scénarios et dessins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bogzzz, Éditions Glénat :
 L´école buissonnière, 2002
 La saison des zzzamours, 2003
 Les Copains d´abord, 2004
@@ -595,11 +614,79 @@
 Premier service, 2016
 Les Goûts et les Couleurs, 2017
 À consommer sans modération,  2018
-Faut pas gaspiller !, 2019
-Dessins
-Slurp !, scénario de Nicolas Digard, Éditions Glénat 2014
-Mise en couleurs
-La Randonnée illustrée de A à Z, scénario de Chanchan, dessins de Nico, Éditions La Sirène 1999
+Faut pas gaspiller !, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nob_(auteur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nob_(auteur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dessins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Slurp !, scénario de Nicolas Digard, Éditions Glénat 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nob_(auteur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nob_(auteur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mise en couleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Randonnée illustrée de A à Z, scénario de Chanchan, dessins de Nico, Éditions La Sirène 1999
 Titeuf, scénario et dessins de Zep, Éditions Glénat :
 Mes meilleurs copains, 2006
 Le sens de la vie, 2008
@@ -610,31 +697,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nob_(auteur)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nob_(auteur)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2008 : prix de l'enseignement 41 pour le jeune public pour Mamette l'Age d'Or
 2015 : Prix Jeune Public pour Filles à papa, le premier tome de Dad au 20e festival de la bande dessinée de Darnétal, Normandiebulle.
